--- a/数据库1.1.xlsx
+++ b/数据库1.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,55 +285,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的昵称，我的邮箱，薪资，福利其他，工龄，所在地区，所在行业 ,薪资比重，福利比重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我的昵称，我的邮箱，薪资，福利其他，工龄，所在地区，所在行业 ,薪资比重，福利比重 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code"：1,"codeStr":成功，"result":{"nickName":"王小三","email":test@163.com,"salary":12345,"welfare":6,"salaryPer":60,"welfarePer":40,"workAge":3,"locationName":北京,"industryName"：IT}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"codeStr":"修改成功""result":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{其他列表信息:id,昵称，排名，分数，当前获得的数据大小，总体数据大小}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post: email="";pwd="";nickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名字，我的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地区id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在行业id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tucao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char（32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code"：1,"codeStr":成功，"result":{"nickName":"王小二"，"worldRank"：123，"percentage"：32}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"codeStr":"成功""result":{"list"[{"userId":123,"nickName":五,"score":8787,"rankNumber":1}{"userId":123,"nickName":五,"score":8787,"rankNumber":2}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"codeStr":"成功""result":{"list"[{"userId":123,"nickName":五,"score":8787,"rankNumber":1}{"userId":123,"nickName":五,"score":8787,"rankNumber":2}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post: email="";pwd="";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbConstant.DB_USER_EMAIL，DbConstant.DB_USER_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbConstant.DB_USER_NICK_NAME；DbConstant.DB_USER_EMAIL，DbConstant.DB_USER_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"code"：1,"codeStr":成功，"result":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nickName="";email="";salary="";welfare="";salaryPer="",welfarePer="",loactionName="",industryName=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_USER_NICK_NAME，DB_USER_SALARY，DB_USER_SALARY_PER，DB_USER_WELFARE，DB_USER_WELFARE_PER，DB_USER_REGION_ID，DB_USER_INDUSTRY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">我的昵称，我的世界排名，领先m% 的人， </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code"：1,"codeStr":成功，"result":{"nickName":"王小二"，"worldRank"：123，"percentage"：32}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的昵称，我的邮箱，薪资，福利其他，工龄，所在地区，所在行业 ,薪资比重，福利比重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">我的昵称，我的邮箱，薪资，福利其他，工龄，所在地区，所在行业 ,薪资比重，福利比重 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code"：1,"codeStr":成功，"result":{"nickName":"王小三","email":test@163.com,"salary":12345,"welfare":6,"salaryPer":60,"welfarePer":40,"workAge":3,"locationName":北京,"industryName"：IT}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 我的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":1,"codeStr":"修改成功""result":{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{其他列表信息:id,昵称，排名，分数，当前获得的数据大小，总体数据大小}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":1,"codeStr":"成功""result":{"list"[{"userId":123,"nickName":五,"score":8787,"rankNumber":1}{"userId":123,"nickName":五,"score":8787,"rankNumber":2}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":1,"codeStr":"成功""result":{"list"[{"userId":123,"nickName":五,"score":8787,"rankNumber":1}{"userId":123,"nickName":五,"score":8787,"rankNumber":2}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post: email="";pwd="";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post: email="";pwd="";nickName</t>
+    <t>DB_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,131 +497,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userId=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userId="",locationName=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区名字，我的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在地区id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在行业id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吐槽数据库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tucao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char（32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,33 +585,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -881,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,23 +932,26 @@
     <col min="12" max="12" width="15.875" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="26" max="26" width="5.25" customWidth="1"/>
+    <col min="27" max="28" width="9" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -951,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -963,59 +1001,59 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1036,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1048,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1056,68 +1094,68 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1137,24 +1175,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1188,22 +1226,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" t="s">
         <v>49</v>
       </c>
@@ -1221,32 +1259,35 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-    </row>
-    <row r="17" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="7" t="s">
         <v>59</v>
       </c>
@@ -1255,38 +1296,41 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-    </row>
-    <row r="18" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="7" t="s">
         <v>60</v>
       </c>
@@ -1295,267 +1339,279 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC18" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="7" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC19" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="9" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23" spans="1:28" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="10" t="s">
+      <c r="B24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
       <c r="X24" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -1567,20 +1623,20 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -1592,20 +1648,20 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -1617,118 +1673,154 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:AB20"/>
     <mergeCell ref="S27:W27"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="S16:W16"/>
@@ -1745,42 +1837,6 @@
     <mergeCell ref="X21:AB21"/>
     <mergeCell ref="S22:W22"/>
     <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
